--- a/기획/가구 컨셉 기획.xlsx
+++ b/기획/가구 컨셉 기획.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,50 @@
   </si>
   <si>
     <t>참고 이미지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_Table_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_Table_2</t>
+  </si>
+  <si>
+    <t>Wood_Table_3</t>
+  </si>
+  <si>
+    <t>Wood_Table_4</t>
+  </si>
+  <si>
+    <t>Wood_Table_5</t>
+  </si>
+  <si>
+    <t>Wood_Desk_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_Desk_2</t>
+  </si>
+  <si>
+    <t>Wood_Chair_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood_Chair_2</t>
+  </si>
+  <si>
+    <t>Wood_Chair_3</t>
+  </si>
+  <si>
+    <t>Wood_Chair_4</t>
+  </si>
+  <si>
+    <t>Wood_Bench_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,6 +657,226 @@
         <a:xfrm>
           <a:off x="1557621" y="2790266"/>
           <a:ext cx="1546410" cy="1161128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9" descr="images (6)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1685925" y="5286375"/>
+          <a:ext cx="1257300" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10" descr="images (7)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1476375" y="4067175"/>
+          <a:ext cx="1781175" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11" descr="다운로드 (1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="323850"/>
+          <a:ext cx="1123950" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12" descr="다운로드 (2)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1685925" y="1476375"/>
+          <a:ext cx="1247775" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,20 +1184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,70 +1208,109 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="99.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1336,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
